--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210A52B8-FF16-4518-9148-0B43137186B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B292ED2-C7A2-4473-AEDB-3A98EE8FA5A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7890" yWindow="3630" windowWidth="19650" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -535,6 +535,17 @@
         <v>6.16</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.4326388888888888</v>
+      </c>
+      <c r="C16">
+        <v>5.25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B292ED2-C7A2-4473-AEDB-3A98EE8FA5A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E70B58-E0DA-4ADE-B83D-1431AAE01FE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="3630" windowWidth="19650" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5970" yWindow="5745" windowWidth="19650" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -546,6 +546,17 @@
         <v>5.25</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43595</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.3243055555555556</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E70B58-E0DA-4ADE-B83D-1431AAE01FE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53355F4-E02C-4378-85C2-9D97C041013E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="5745" windowWidth="19650" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5970" yWindow="4215" windowWidth="19650" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -557,6 +557,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43603</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.2847222222222221</v>
+      </c>
+      <c r="C18">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53355F4-E02C-4378-85C2-9D97C041013E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F46400-BA9F-41C9-8CD6-6B6333A8D2E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5970" yWindow="4215" windowWidth="19650" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -568,6 +568,17 @@
         <v>5.0199999999999996</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43608</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2.65625</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F46400-BA9F-41C9-8CD6-6B6333A8D2E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DD82BD-9ECA-4A7C-A49D-127F5B1EA7A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="4215" windowWidth="19650" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="1425" windowWidth="19650" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,11 +74,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -359,15 +361,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -385,8 +388,8 @@
       <c r="A2" s="1">
         <v>43487</v>
       </c>
-      <c r="B2" s="2">
-        <v>1.9013888888888888</v>
+      <c r="B2" s="4">
+        <v>1.901388888888889</v>
       </c>
       <c r="C2">
         <v>5.51</v>
@@ -396,7 +399,7 @@
       <c r="A3" s="1">
         <v>43520</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>1.2270833333333333</v>
       </c>
       <c r="C3">
@@ -407,7 +410,7 @@
       <c r="A4" s="1">
         <v>43523</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>1.5423611111111111</v>
       </c>
       <c r="C4">
@@ -418,8 +421,8 @@
       <c r="A5" s="1">
         <v>43526</v>
       </c>
-      <c r="B5" s="2">
-        <v>1.721527777777778</v>
+      <c r="B5" s="4">
+        <v>1.7215277777777778</v>
       </c>
       <c r="C5">
         <v>5.47</v>
@@ -573,10 +576,21 @@
         <v>43608</v>
       </c>
       <c r="B19" s="2">
-        <v>2.65625</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C19">
         <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43617</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2.1296296296296299E-2</v>
+      </c>
+      <c r="C20">
+        <v>5.0199999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DD82BD-9ECA-4A7C-A49D-127F5B1EA7A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6FB775-F7AC-4327-ABC9-13209C56E06E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="1425" windowWidth="19650" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,8 +498,8 @@
       <c r="A12" s="1">
         <v>43560</v>
       </c>
-      <c r="B12" s="2">
-        <v>1.8</v>
+      <c r="B12" s="4">
+        <v>1.7999999999999998</v>
       </c>
       <c r="C12">
         <v>5.03</v>
@@ -564,8 +564,8 @@
       <c r="A18" s="1">
         <v>43603</v>
       </c>
-      <c r="B18" s="2">
-        <v>1.2847222222222221</v>
+      <c r="B18" s="4">
+        <v>1.2847222222222223</v>
       </c>
       <c r="C18">
         <v>5.0199999999999996</v>
@@ -591,6 +591,17 @@
       </c>
       <c r="C20">
         <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43623</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2.989583333333333E-2</v>
+      </c>
+      <c r="C21">
+        <v>7.28</v>
       </c>
     </row>
   </sheetData>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6FB775-F7AC-4327-ABC9-13209C56E06E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492C31F4-AC9D-4355-9334-A76DEDFA4B03}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="1425" windowWidth="19650" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -604,6 +604,17 @@
         <v>7.28</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43636</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2.2928240740740739E-2</v>
+      </c>
+      <c r="C22">
+        <v>5.01</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492C31F4-AC9D-4355-9334-A76DEDFA4B03}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDE704B-10C3-45AA-AFEF-CD1BA2A750EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1425" windowWidth="19650" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="1320" windowWidth="19650" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -615,6 +615,17 @@
         <v>5.01</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43650</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2.2442129629629631E-2</v>
+      </c>
+      <c r="C23">
+        <v>5.01</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDE704B-10C3-45AA-AFEF-CD1BA2A750EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249F4946-0481-4AE0-8E88-E1F4BD999329}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2955" yWindow="1320" windowWidth="19650" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -626,6 +626,17 @@
         <v>5.01</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43659</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2.3460648148148147E-2</v>
+      </c>
+      <c r="C24">
+        <v>5.03</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249F4946-0481-4AE0-8E88-E1F4BD999329}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E86434-2C5A-4056-B5EB-6CE7CD0B7C6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="1320" windowWidth="19650" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="210" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -637,6 +637,17 @@
         <v>5.03</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43667</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2.2280092592592591E-2</v>
+      </c>
+      <c r="C25">
+        <v>5.01</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E86434-2C5A-4056-B5EB-6CE7CD0B7C6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140C92CA-5331-4349-A071-8F308CFDA108}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="210" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="570" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -648,6 +648,17 @@
         <v>5.01</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43681</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2.359953703703704E-2</v>
+      </c>
+      <c r="C26">
+        <v>5.04</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140C92CA-5331-4349-A071-8F308CFDA108}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854DFDC4-892E-464F-B025-68F9538FABD0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="570" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="645" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -659,6 +659,17 @@
         <v>5.04</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1.6249999999999997E-2</v>
+      </c>
+      <c r="C27">
+        <v>3.01</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854DFDC4-892E-464F-B025-68F9538FABD0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1EDF36-F641-45CB-9307-A49F16BE9DAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="645" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1695" yWindow="675" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -670,6 +670,17 @@
         <v>3.01</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43716</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2.2824074074074076E-2</v>
+      </c>
+      <c r="C28">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1EDF36-F641-45CB-9307-A49F16BE9DAC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FCB74C-9A41-4AC4-9041-3E5CC84156A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1695" yWindow="675" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,6 +681,17 @@
         <v>5.0199999999999996</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43730</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2.4432870370370369E-2</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FCB74C-9A41-4AC4-9041-3E5CC84156A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB82E20-8B62-445E-B311-A3E563B0CE9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1695" yWindow="675" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -692,6 +692,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1.5787037037037037E-2</v>
+      </c>
+      <c r="C30">
+        <v>3.04</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB82E20-8B62-445E-B311-A3E563B0CE9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16327F57-ED80-4961-8ABD-6915A0B2EA9C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1695" yWindow="675" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -703,6 +703,17 @@
         <v>3.04</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43741</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1.4560185185185183E-2</v>
+      </c>
+      <c r="C31">
+        <v>3.01</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16327F57-ED80-4961-8ABD-6915A0B2EA9C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89137C5B-A176-45A4-A468-34CC7C7D7788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1695" yWindow="675" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -388,7 +388,7 @@
       <c r="A2" s="1">
         <v>43487</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>1.901388888888889</v>
       </c>
       <c r="C2">
@@ -399,7 +399,7 @@
       <c r="A3" s="1">
         <v>43520</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>1.2270833333333333</v>
       </c>
       <c r="C3">
@@ -410,7 +410,7 @@
       <c r="A4" s="1">
         <v>43523</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>1.5423611111111111</v>
       </c>
       <c r="C4">
@@ -432,7 +432,7 @@
       <c r="A6" s="1">
         <v>43537</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>1.4652777777777777</v>
       </c>
       <c r="C6">
@@ -443,7 +443,7 @@
       <c r="A7" s="1">
         <v>43540</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>1.35625</v>
       </c>
       <c r="C7">
@@ -454,7 +454,7 @@
       <c r="A8" s="1">
         <v>43545</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>0.85972222222222217</v>
       </c>
       <c r="C8">
@@ -465,7 +465,7 @@
       <c r="A9" s="1">
         <v>43547</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>1.6395833333333334</v>
       </c>
       <c r="C9">
@@ -476,8 +476,8 @@
       <c r="A10" s="1">
         <v>43555</v>
       </c>
-      <c r="B10" s="2">
-        <v>1.3944444444444446</v>
+      <c r="B10" s="4">
+        <v>1.3944444444444444</v>
       </c>
       <c r="C10">
         <v>5.0199999999999996</v>
@@ -487,8 +487,8 @@
       <c r="A11" s="1">
         <v>43558</v>
       </c>
-      <c r="B11" s="2">
-        <v>1.3555555555555554</v>
+      <c r="B11" s="5">
+        <v>1.3555555555555556</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -498,7 +498,7 @@
       <c r="A12" s="1">
         <v>43560</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>1.7999999999999998</v>
       </c>
       <c r="C12">
@@ -509,7 +509,7 @@
       <c r="A13" s="1">
         <v>43565</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="5">
         <v>2.0451388888888888</v>
       </c>
       <c r="C13">
@@ -520,8 +520,8 @@
       <c r="A14" s="1">
         <v>43567</v>
       </c>
-      <c r="B14" s="2">
-        <v>2.7777777777777781</v>
+      <c r="B14" s="5">
+        <v>2.7777777777777777</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -531,7 +531,7 @@
       <c r="A15" s="1">
         <v>43574</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <v>2.0173611111111112</v>
       </c>
       <c r="C15">
@@ -542,7 +542,7 @@
       <c r="A16" s="1">
         <v>43581</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <v>1.4326388888888888</v>
       </c>
       <c r="C16">
@@ -553,7 +553,7 @@
       <c r="A17" s="1">
         <v>43595</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="5">
         <v>1.3243055555555556</v>
       </c>
       <c r="C17">
@@ -564,7 +564,7 @@
       <c r="A18" s="1">
         <v>43603</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>1.2847222222222223</v>
       </c>
       <c r="C18">
@@ -712,6 +712,17 @@
       </c>
       <c r="C31">
         <v>3.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43746</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2.2152777777777775E-2</v>
+      </c>
+      <c r="C32">
+        <v>4.01</v>
       </c>
     </row>
   </sheetData>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89137C5B-A176-45A4-A468-34CC7C7D7788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F0F5E9-E518-431D-83EB-47CD188A7572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1695" yWindow="675" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -725,6 +725,9 @@
         <v>4.01</v>
       </c>
     </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F0F5E9-E518-431D-83EB-47CD188A7572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949E5254-C6E2-46D5-A803-BAC48F4C4C02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="675" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="120" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,13 +363,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -725,8 +725,16 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43754</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1.9421296296296294E-2</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949E5254-C6E2-46D5-A803-BAC48F4C4C02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF2610D-B869-44D4-A7E6-29E0F98246E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1710" yWindow="120" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -736,6 +736,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43758</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2.1527777777777781E-2</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF2610D-B869-44D4-A7E6-29E0F98246E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47333B34-AE04-4EDD-A25D-0E6ACC6E2722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1710" yWindow="120" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -747,6 +747,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43774</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1.4733796296296295E-2</v>
+      </c>
+      <c r="C35">
+        <v>3.01</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47333B34-AE04-4EDD-A25D-0E6ACC6E2722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C26ADA-ED38-4838-BCED-00680BAA931F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="120" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -758,6 +758,17 @@
         <v>3.01</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43777</v>
+      </c>
+      <c r="B36" s="3">
+        <v>8.9814814814814809E-3</v>
+      </c>
+      <c r="C36">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C26ADA-ED38-4838-BCED-00680BAA931F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6382CD23-FE1A-465C-8D23-BE8E55EE34EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="765" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -769,6 +769,17 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43779</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1.252314814814815E-2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6382CD23-FE1A-465C-8D23-BE8E55EE34EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C454F7-3A5F-4143-8BD3-E98C2B437F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="405" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -780,6 +780,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43784</v>
+      </c>
+      <c r="B38" s="5">
+        <v>7.743055555555556E-3</v>
+      </c>
+      <c r="C38">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43793</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1.0902777777777777E-2</v>
+      </c>
+      <c r="C39">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C454F7-3A5F-4143-8BD3-E98C2B437F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819C30AF-CE1B-4846-8B20-4958921CB85D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1965" yWindow="405" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -802,6 +802,17 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43798</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1.1238425925925928E-2</v>
+      </c>
+      <c r="C40">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819C30AF-CE1B-4846-8B20-4958921CB85D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4F3EFD-B8AC-4587-BE65-3133256AC536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1965" yWindow="405" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
@@ -813,6 +813,17 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43803</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C41">
+        <v>2.12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4F3EFD-B8AC-4587-BE65-3133256AC536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D5659C-F806-432D-BAC9-1B292F40821B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1965" yWindow="405" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -443,7 +443,7 @@
       <c r="A7" s="1">
         <v>43540</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1.35625</v>
       </c>
       <c r="C7">
@@ -822,6 +822,17 @@
       </c>
       <c r="C41">
         <v>2.12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43806</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D5659C-F806-432D-BAC9-1B292F40821B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994193C0-FFC1-44AC-A729-40368B7B08D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="405" windowWidth="24780" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="1455" windowWidth="22365" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -835,6 +835,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43810</v>
+      </c>
+      <c r="B43" s="5">
+        <v>4.6180555555555558E-3</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43816</v>
+      </c>
+      <c r="B44" s="5">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994193C0-FFC1-44AC-A729-40368B7B08D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785E9A97-1E5E-485A-A58F-C91DA676DEBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="1455" windowWidth="22365" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="555" windowWidth="22365" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -857,6 +857,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43824</v>
+      </c>
+      <c r="B45" s="5">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785E9A97-1E5E-485A-A58F-C91DA676DEBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117DD9F0-DC58-4659-9475-B63BE717190F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="555" windowWidth="22365" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="555" windowWidth="28800" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -868,6 +868,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43828</v>
+      </c>
+      <c r="B46" s="5">
+        <v>4.5833333333333334E-3</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117DD9F0-DC58-4659-9475-B63BE717190F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4644C99A-2DD0-4AFB-B9DA-978FF75236CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="555" windowWidth="28800" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2385" yWindow="2130" windowWidth="22950" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -879,6 +879,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B47" s="5">
+        <v>4.9537037037037041E-3</v>
+      </c>
+      <c r="C47">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43842</v>
+      </c>
+      <c r="B48" s="5">
+        <v>1.5740740740740741E-3</v>
+      </c>
+      <c r="C48">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/records/Running-record.xlsx
+++ b/records/Running-record.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4644C99A-2DD0-4AFB-B9DA-978FF75236CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABC46FC-90BD-456F-B376-1C6D2656ACE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2130" windowWidth="22950" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4530" yWindow="1620" windowWidth="22950" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -901,6 +901,17 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43848</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1.0254629629629629E-2</v>
+      </c>
+      <c r="C49">
+        <v>2.06</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
